--- a/Results/Calculation/dp-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-elmo_ori-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G2">
-        <v>0.79</v>
+        <v>0.8344370860927153</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.7262247838616714</v>
       </c>
       <c r="I2">
         <v>0.79</v>
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0.6899999999999999</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="G3">
-        <v>0.9399999999999999</v>
+        <v>0.9400921658986175</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.7968749999999999</v>
       </c>
       <c r="I3">
         <v>0.77</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>0.8100000000000001</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="G4">
-        <v>0.74</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H4">
-        <v>0.77</v>
+        <v>0.8208469055374593</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,25 +522,25 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>46</v>
       </c>
       <c r="F5">
-        <v>0.6899999999999999</v>
+        <v>0.65625</v>
       </c>
       <c r="G5">
-        <v>0.65</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="H5">
-        <v>0.67</v>
+        <v>0.6511627906976746</v>
       </c>
       <c r="I5">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Calculation/dp-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-elmo_ori-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.6428571428571429</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="G2">
-        <v>0.8344370860927153</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="H2">
-        <v>0.7262247838616714</v>
+        <v>0.7398119122257053</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0.6915254237288135</v>
+        <v>0.6582278481012658</v>
       </c>
       <c r="G3">
-        <v>0.9400921658986175</v>
+        <v>0.9585253456221198</v>
       </c>
       <c r="H3">
-        <v>0.7968749999999999</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="I3">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0.8235294117647058</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="G4">
-        <v>0.8181818181818182</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="H4">
-        <v>0.8208469055374593</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>0.65625</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="G5">
-        <v>0.6461538461538462</v>
+        <v>0.5923076923076923</v>
       </c>
       <c r="H5">
-        <v>0.6511627906976746</v>
+        <v>0.6905829596412557</v>
       </c>
       <c r="I5">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
